--- a/hw_ecnm.xlsx
+++ b/hw_ecnm.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -510,7 +510,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -1044,17 +1044,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1338,29 +1338,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="4" customWidth="1"/>
-    <col min="10" max="10" width="30.33203125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="18.88671875" style="4" customWidth="1"/>
-    <col min="12" max="15" width="9.109375" style="4"/>
-    <col min="16" max="18" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.109375" style="4"/>
+    <col min="10" max="10" width="30.28515625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" style="4" customWidth="1"/>
+    <col min="12" max="15" width="9.140625" style="4"/>
+    <col min="16" max="18" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="88" t="s">
         <v>21</v>
       </c>
@@ -1371,7 +1371,7 @@
       <c r="F1" s="88"/>
       <c r="G1" s="88"/>
     </row>
-    <row r="2" spans="1:18" ht="190.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="190.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -1573,7 +1573,7 @@
       <c r="H6" s="15"/>
       <c r="K6" s="40"/>
     </row>
-    <row r="7" spans="1:18" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="H7" s="15"/>
     </row>
-    <row r="8" spans="1:18" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="90" t="s">
         <v>27</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="88" t="s">
         <v>22</v>
       </c>
@@ -1625,7 +1625,7 @@
       <c r="D10" s="88"/>
       <c r="E10" s="88"/>
     </row>
-    <row r="11" spans="1:18" ht="42" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>1</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>2398000</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>2</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>3730000</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>3</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>3338000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>4</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>3020000</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>5</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>1815000</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="93" t="s">
         <v>49</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>14301000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="88" t="s">
         <v>30</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="89"/>
       <c r="B21" s="89"/>
       <c r="C21" s="89"/>
@@ -1913,7 +1913,7 @@
         <v>175.5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="92" t="s">
         <v>38</v>
       </c>
@@ -1923,7 +1923,7 @@
       <c r="E29" s="92"/>
       <c r="F29" s="92"/>
     </row>
-    <row r="30" spans="1:7" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>7</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21">
         <v>1</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>1649700</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21">
         <v>2</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>14301000</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21">
         <v>3</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>1430100</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="21">
         <v>4</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>572040</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="21">
         <v>5</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>572040</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="93" t="s">
         <v>27</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>18524880</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="88" t="s">
         <v>41</v>
       </c>
@@ -2029,7 +2029,7 @@
       <c r="E38" s="88"/>
       <c r="F38" s="14"/>
     </row>
-    <row r="39" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>7</v>
       </c>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="F39" s="15"/>
     </row>
-    <row r="40" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="42">
         <v>1</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>479600</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="42">
         <v>2</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>746000</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="42">
         <v>3</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>667600</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="42">
         <v>4</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>604000</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="42">
         <v>5</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>363000</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="42">
         <v>6</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>2901442.5</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="91" t="s">
         <v>46</v>
       </c>
@@ -2185,7 +2185,7 @@
       <c r="D48" s="91"/>
       <c r="E48" s="91"/>
     </row>
-    <row r="49" spans="1:10" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>7</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="12">
         <v>1</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="12">
         <v>2</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="12">
         <v>3</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="12">
         <v>4</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="12">
         <v>5</v>
       </c>
@@ -2412,13 +2412,13 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="G55" s="71">
         <f>SUM(G50:G54)</f>
         <v>1083873.3010989013</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B56" s="96" t="s">
         <v>61</v>
       </c>
@@ -2428,7 +2428,7 @@
       <c r="F56" s="96"/>
       <c r="G56" s="96"/>
     </row>
-    <row r="57" spans="1:10" ht="42" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="18" t="s">
         <v>50</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="79">
         <f>((K3*K4*K5*7800*J3*1000)/360/1000000000)</f>
         <v>26.8125</v>
@@ -2473,7 +2473,7 @@
         <v>206456.25</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B60" s="96" t="s">
         <v>60</v>
       </c>
@@ -2481,7 +2481,7 @@
       <c r="D60" s="96"/>
       <c r="E60" s="96"/>
     </row>
-    <row r="61" spans="1:10" ht="55.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="18" t="s">
         <v>56</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="79">
         <f>(K3*K4*K5*7800*350)/1000000000</f>
         <v>20.475000000000001</v>
@@ -2513,7 +2513,7 @@
         <v>105834.89583333336</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B64" s="96" t="s">
         <v>62</v>
       </c>
@@ -2521,7 +2521,7 @@
       <c r="D64" s="96"/>
       <c r="E64" s="96"/>
     </row>
-    <row r="65" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="18" t="s">
         <v>63</v>
       </c>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="F65" s="75"/>
     </row>
-    <row r="66" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B66" s="79">
         <f>B62/0.45</f>
         <v>45.5</v>
@@ -2554,7 +2554,7 @@
         <v>373996.62528538815</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F67" s="35"/>
     </row>
     <row r="68" spans="1:6" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="E68" s="76"/>
     </row>
-    <row r="69" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B69" s="74">
         <f>250*8*(1-0.15)</f>
         <v>1700</v>
@@ -2571,7 +2571,7 @@
       <c r="E69" s="77"/>
       <c r="F69" s="35"/>
     </row>
-    <row r="70" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B70" s="91" t="s">
         <v>65</v>
       </c>
@@ -2592,12 +2592,12 @@
       <c r="D71" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="97" t="s">
+      <c r="E71" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="F71" s="98"/>
-    </row>
-    <row r="72" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F71" s="100"/>
+    </row>
+    <row r="72" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="12">
         <v>1</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="12">
         <v>2</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="12">
         <v>3</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="12">
         <v>4</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="12">
         <v>5</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:6" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="90" t="s">
         <v>27</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B80" s="91" t="s">
         <v>72</v>
       </c>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="G81" s="55"/>
     </row>
-    <row r="82" spans="1:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="12">
         <v>1</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>0.60666666666666669</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="12">
         <v>2</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="12">
         <v>3</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>0.81666666666666654</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="12">
         <v>4</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>1.4583333333333333</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="12">
         <v>5</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="90" t="s">
         <v>27</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>4.2016666666666671</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B89" s="96" t="s">
         <v>77</v>
       </c>
@@ -2897,7 +2897,7 @@
       <c r="E89" s="91"/>
       <c r="F89" s="24"/>
     </row>
-    <row r="90" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B90" s="18" t="s">
         <v>74</v>
       </c>
@@ -2909,7 +2909,7 @@
       </c>
       <c r="E90" s="15"/>
     </row>
-    <row r="91" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="22">
         <f>K3*K4*K5/1000000000*7800</f>
         <v>5.8500000000000003E-2</v>
@@ -2924,7 +2924,7 @@
       </c>
       <c r="E91" s="75"/>
     </row>
-    <row r="93" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B93" s="91" t="s">
         <v>138</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="27" t="s">
         <v>82</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>20.475000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="27" t="s">
         <v>84</v>
       </c>
@@ -2964,7 +2964,7 @@
       <c r="C96" s="9"/>
       <c r="H96" s="15"/>
     </row>
-    <row r="97" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="27" t="s">
         <v>86</v>
       </c>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="H97" s="49"/>
     </row>
-    <row r="98" spans="1:9" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="27" t="s">
         <v>88</v>
       </c>
@@ -2987,7 +2987,7 @@
       <c r="C98" s="9"/>
       <c r="H98" s="50"/>
     </row>
-    <row r="99" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="27" t="s">
         <v>90</v>
       </c>
@@ -3000,7 +3000,7 @@
       </c>
       <c r="H99" s="15"/>
     </row>
-    <row r="100" spans="1:9" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="28" t="s">
         <v>92</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>4.2016666666666671</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="63" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="25" t="s">
         <v>94</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>0.63025000000000009</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="28" t="s">
         <v>96</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="25" t="s">
         <v>98</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>10.358432800836608</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="25" t="s">
         <v>100</v>
       </c>
@@ -3095,11 +3095,11 @@
         <v>43.522681818181823</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="99" t="s">
+    <row r="105" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="B105" s="100"/>
+      <c r="B105" s="98"/>
       <c r="C105" s="9">
         <f>SUM(C95:C104)</f>
         <v>132.86175757575759</v>
@@ -3114,7 +3114,7 @@
       <c r="C108" s="87"/>
       <c r="D108" s="87"/>
     </row>
-    <row r="109" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="36" t="s">
         <v>119</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="37">
         <v>1</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="37">
         <v>2</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>14301000</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="37">
         <v>3</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>1649700</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="37">
         <v>4</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>18524880</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="37">
         <v>5</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>1083873.3010989013</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="37">
         <v>6</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>Нет</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="37">
         <v>7</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>206456.25</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="37">
         <v>8</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>105834.89583333336</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="37">
         <v>9</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>61705.479452054795</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="37">
         <v>10</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>373996.62528538815</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="37">
         <v>11</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="37">
         <v>12</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>693275</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="37">
         <v>13</v>
       </c>
